--- a/Experiments/220912/output.xlsx
+++ b/Experiments/220912/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/220912/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA15F89-3AAD-6241-AD3B-23014E8A1D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A47C70-CFD4-EA4F-B8EC-4511D9FC1AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16700" xr2:uid="{9BB9D6FC-77E2-8149-B918-ABC90EF3BCA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>00</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>Temp2</t>
+  </si>
+  <si>
+    <t>Mal_Rep1</t>
+  </si>
+  <si>
+    <t>Mal_Rep2</t>
+  </si>
+  <si>
+    <t>Mal_Rep3</t>
+  </si>
+  <si>
+    <t>Pyr_Rep1</t>
+  </si>
+  <si>
+    <t>Pyr_Rep2</t>
+  </si>
+  <si>
+    <t>Pyr_Rep3</t>
   </si>
 </sst>
 </file>
@@ -408,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE5CC8D-EC40-B14B-B344-EFA5FFF72B49}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D9"/>
+      <selection activeCell="H6" sqref="H6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -426,8 +444,26 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +485,17 @@
       <c r="G2">
         <v>593597.69999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>23321.66</v>
+      </c>
+      <c r="I2">
+        <v>31592.68</v>
+      </c>
+      <c r="J2">
+        <v>29870.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -472,8 +517,17 @@
       <c r="G3">
         <v>693912.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>22596</v>
+      </c>
+      <c r="I3">
+        <v>28338</v>
+      </c>
+      <c r="J3">
+        <v>29670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -495,8 +549,17 @@
       <c r="G4">
         <v>532852</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>6176</v>
+      </c>
+      <c r="I4">
+        <v>15002</v>
+      </c>
+      <c r="J4">
+        <v>15092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -518,8 +581,17 @@
       <c r="G5">
         <v>673646</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>3819</v>
+      </c>
+      <c r="I5">
+        <v>3579</v>
+      </c>
+      <c r="J5">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +613,17 @@
       <c r="G6">
         <v>573082.80000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>52134.32</v>
+      </c>
+      <c r="I6">
+        <v>41401.760000000002</v>
+      </c>
+      <c r="J6">
+        <v>37908.550000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -564,8 +645,17 @@
       <c r="G7">
         <v>558373.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>55495.13</v>
+      </c>
+      <c r="I7">
+        <v>43359.71</v>
+      </c>
+      <c r="J7">
+        <v>53503.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -587,8 +677,17 @@
       <c r="G8">
         <v>442263.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>33478.75</v>
+      </c>
+      <c r="I8">
+        <v>34533.839999999997</v>
+      </c>
+      <c r="J8">
+        <v>36889.660000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -609,6 +708,15 @@
       </c>
       <c r="G9">
         <v>495559.6</v>
+      </c>
+      <c r="H9">
+        <v>33724.120000000003</v>
+      </c>
+      <c r="I9">
+        <v>37594.879999999997</v>
+      </c>
+      <c r="J9">
+        <v>37662.339999999997</v>
       </c>
     </row>
   </sheetData>
